--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf15-Klb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf15-Klb.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4084856666666667</v>
+        <v>0.2921476666666666</v>
       </c>
       <c r="N2">
-        <v>1.225457</v>
+        <v>0.876443</v>
       </c>
       <c r="O2">
-        <v>0.206338058761349</v>
+        <v>0.1567859736747012</v>
       </c>
       <c r="P2">
-        <v>0.206338058761349</v>
+        <v>0.1567859736747012</v>
       </c>
       <c r="Q2">
-        <v>0.05471665505000001</v>
+        <v>0.03913317995</v>
       </c>
       <c r="R2">
-        <v>0.4924498954500001</v>
+        <v>0.35219861955</v>
       </c>
       <c r="S2">
-        <v>0.206338058761349</v>
+        <v>0.1567859736747012</v>
       </c>
       <c r="T2">
-        <v>0.206338058761349</v>
+        <v>0.1567859736747012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>3.789252</v>
       </c>
       <c r="O3">
-        <v>0.6380206746034819</v>
+        <v>0.6778553360786825</v>
       </c>
       <c r="P3">
-        <v>0.638020674603482</v>
+        <v>0.6778553360786825</v>
       </c>
       <c r="Q3">
         <v>0.1691901018</v>
@@ -632,10 +632,10 @@
         <v>1.5227109162</v>
       </c>
       <c r="S3">
-        <v>0.6380206746034819</v>
+        <v>0.6778553360786825</v>
       </c>
       <c r="T3">
-        <v>0.638020674603482</v>
+        <v>0.6778553360786825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>0.924365</v>
       </c>
       <c r="O4">
-        <v>0.1556412666351691</v>
+        <v>0.1653586902466163</v>
       </c>
       <c r="P4">
-        <v>0.1556412666351691</v>
+        <v>0.1653586902466163</v>
       </c>
       <c r="Q4">
         <v>0.04127289725000001</v>
@@ -694,10 +694,10 @@
         <v>0.37145607525</v>
       </c>
       <c r="S4">
-        <v>0.1556412666351691</v>
+        <v>0.1653586902466163</v>
       </c>
       <c r="T4">
-        <v>0.1556412666351691</v>
+        <v>0.1653586902466163</v>
       </c>
     </row>
   </sheetData>
